--- a/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_en_Bulgarie/Pandémie_de_Covid-19_en_Bulgarie.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_en_Bulgarie/Pandémie_de_Covid-19_en_Bulgarie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Bulgarie</t>
+          <t>Pandémie_de_Covid-19_en_Bulgarie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé. En Bulgarie, elle se propage à partir du 8 mars 2020.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Bulgarie</t>
+          <t>Pandémie_de_Covid-19_en_Bulgarie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premiers cas sont confirmés dans le pays le 8 mars 2020, un homme de 27 ans à Pleven et une femme de 75 ans à Gabrovo. Aucune de ces deux personnes n'avaient voyagé dans l'un des lieux où des cas étaient confirmés. L'homme a été hospitalisé après avoir développé des difficultés respiratoires, et les autorités annoncent un plan pour tester toutes les personnes ayant été en contact avec ces deux individus[3]. Ce jour-là, deux autres échantillons testés à Pleven et Gabrovo étaient positifs[4]. Le patient zéro demeure inconnu[5].
-La Bulgarie est d'autant plus exposée à la crise sanitaire du fait de la moyenne d’âge élevée de sa population, du mauvais état de santé général de ses habitants et des moyens limités de son système de santé[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premiers cas sont confirmés dans le pays le 8 mars 2020, un homme de 27 ans à Pleven et une femme de 75 ans à Gabrovo. Aucune de ces deux personnes n'avaient voyagé dans l'un des lieux où des cas étaient confirmés. L'homme a été hospitalisé après avoir développé des difficultés respiratoires, et les autorités annoncent un plan pour tester toutes les personnes ayant été en contact avec ces deux individus. Ce jour-là, deux autres échantillons testés à Pleven et Gabrovo étaient positifs. Le patient zéro demeure inconnu.
+La Bulgarie est d'autant plus exposée à la crise sanitaire du fait de la moyenne d’âge élevée de sa population, du mauvais état de santé général de ses habitants et des moyens limités de son système de santé.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Bulgarie</t>
+          <t>Pandémie_de_Covid-19_en_Bulgarie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Mesures sociales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une fois que le nombre de cas confirmés a atteint 23, le parlement vote à l'unanimité la mise en place de l'état d'urgence à compter du 13 mars au 13 avril[7]. Une quarantaine préventive de 14 jours est mise en place pour toutes personnes ayant été en contact avec des cas de Covid-19 ou ayant voyagé dans des zones à risque. Les personnes testées positives sont mises en quarantaine à domicile pour une période de 21 jours. Ce décompte débute à partir du moment où la personne contaminée a été testée négative après un traitement effectué à l'hôpital. Après que l'Organisation mondiale de la santé (OMS) ai déclaré que la Covid-19 est plus résistante que les observations initiales, les autorités allongent la durée de confinement à 28 jours[8]. Avec l'expansion de la pandémie, le gouvernement fait la demande au parlement de la prolongation de l'état d'urgence d'un mois, jusqu'au 13 mai[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une fois que le nombre de cas confirmés a atteint 23, le parlement vote à l'unanimité la mise en place de l'état d'urgence à compter du 13 mars au 13 avril. Une quarantaine préventive de 14 jours est mise en place pour toutes personnes ayant été en contact avec des cas de Covid-19 ou ayant voyagé dans des zones à risque. Les personnes testées positives sont mises en quarantaine à domicile pour une période de 21 jours. Ce décompte débute à partir du moment où la personne contaminée a été testée négative après un traitement effectué à l'hôpital. Après que l'Organisation mondiale de la santé (OMS) ai déclaré que la Covid-19 est plus résistante que les observations initiales, les autorités allongent la durée de confinement à 28 jours. Avec l'expansion de la pandémie, le gouvernement fait la demande au parlement de la prolongation de l'état d'urgence d'un mois, jusqu'au 13 mai.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Bulgarie</t>
+          <t>Pandémie_de_Covid-19_en_Bulgarie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Traitement pharmaceutique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chloroquine du laboratoire public Bul Bio est utilisé pour soigner les malades du Covid-19[10]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chloroquine du laboratoire public Bul Bio est utilisé pour soigner les malades du Covid-19
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Bulgarie</t>
+          <t>Pandémie_de_Covid-19_en_Bulgarie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Vaccination</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La méfiance à l'égard des vaccins est très répandue en Bulgarie et "aucun responsable politique n’a vraiment appelé à se faire vacciner"[11], aussi, en octobre 2021, seuls 20% des 6,9 millions d'habitants sont vaccinés[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La méfiance à l'égard des vaccins est très répandue en Bulgarie et "aucun responsable politique n’a vraiment appelé à se faire vacciner", aussi, en octobre 2021, seuls 20% des 6,9 millions d'habitants sont vaccinés.
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Bulgarie</t>
+          <t>Pandémie_de_Covid-19_en_Bulgarie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Passe sanitaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gouvernement instaure un passe sanitaire à partir d'octobre 2021[réf. souhaitée].
 </t>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Bulgarie</t>
+          <t>Pandémie_de_Covid-19_en_Bulgarie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,6 +690,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
